--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -2811,22 +2811,22 @@
         <v>868</v>
       </c>
       <c r="G59">
-        <v>9486</v>
+        <v>9736</v>
       </c>
       <c r="H59">
-        <v>15909</v>
+        <v>15911</v>
       </c>
       <c r="I59">
-        <v>7222</v>
+        <v>7227</v>
       </c>
       <c r="J59">
         <v>11513</v>
       </c>
       <c r="K59">
-        <v>15099</v>
+        <v>14869</v>
       </c>
       <c r="L59">
-        <v>59872</v>
+        <v>59846</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -2796,16 +2796,16 @@
         <v>69</v>
       </c>
       <c r="B59">
-        <v>6860</v>
+        <v>6760</v>
       </c>
       <c r="C59">
         <v>63415</v>
       </c>
       <c r="D59">
-        <v>56555</v>
+        <v>56655</v>
       </c>
       <c r="E59">
-        <v>119970</v>
+        <v>120070</v>
       </c>
       <c r="F59">
         <v>868</v>
@@ -2814,19 +2814,19 @@
         <v>9736</v>
       </c>
       <c r="H59">
-        <v>15911</v>
+        <v>16011</v>
       </c>
       <c r="I59">
-        <v>7227</v>
+        <v>7277</v>
       </c>
       <c r="J59">
         <v>11513</v>
       </c>
       <c r="K59">
-        <v>14869</v>
+        <v>14889</v>
       </c>
       <c r="L59">
-        <v>59846</v>
+        <v>59776</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Serie</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2829,6 +2832,17 @@
         <v>59776</v>
       </c>
     </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>70547</v>
+      </c>
+      <c r="D60">
+        <v>64849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -2826,21 +2826,48 @@
         <v>11513</v>
       </c>
       <c r="K59">
-        <v>14889</v>
+        <v>14961</v>
       </c>
       <c r="L59">
-        <v>59776</v>
+        <v>59704</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>70</v>
       </c>
+      <c r="B60">
+        <v>5698</v>
+      </c>
       <c r="C60">
         <v>70547</v>
       </c>
       <c r="D60">
         <v>64849</v>
+      </c>
+      <c r="E60">
+        <v>135397</v>
+      </c>
+      <c r="F60">
+        <v>1429</v>
+      </c>
+      <c r="G60">
+        <v>10706</v>
+      </c>
+      <c r="H60">
+        <v>19087</v>
+      </c>
+      <c r="I60">
+        <v>9512</v>
+      </c>
+      <c r="J60">
+        <v>14799</v>
+      </c>
+      <c r="K60">
+        <v>16776</v>
+      </c>
+      <c r="L60">
+        <v>63086</v>
       </c>
     </row>
   </sheetData>
